--- a/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.0.xlsx
@@ -58,51 +58,51 @@
     <t>בוקר טוב. נעים מאד, דוק.</t>
   </si>
   <si>
+    <t>היי,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>דוקטור דוק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> בבקשה תשבי.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>אא מה קורה?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>גברת רונן?</t>
+  </si>
+  <si>
+    <t>כן יעל.</t>
+  </si>
+  <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>מה, מה קורה עם יואב?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> למה לא משחררים לי אותו?</t>
+  </si>
+  <si>
+    <t>יואב בסדר</t>
+  </si>
+  <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t>היי,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>דוקטור דוק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> בבקשה תשבי.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>אא מה קורה?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>גברת רונן?</t>
-  </si>
-  <si>
-    <t>כן יעל.</t>
-  </si>
-  <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>מה, מה קורה עם יואב?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> למה לא משחררים לי אותו?</t>
-  </si>
-  <si>
-    <t>יואב בסדר</t>
-  </si>
-  <si>
     <t>הכל בסדר הכל יהיה בסדר. קודם כל אין מה להיבהל.</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t>אוקיי.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t xml:space="preserve">אז אני רק רוצה שאנחנו נדע מה קורה? </t>
   </si>
   <si>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>כאבי בטן קצת בחילות,</t>
@@ -783,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -811,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -833,13 +833,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -861,13 +861,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -875,13 +875,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -903,13 +903,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -917,13 +917,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -931,13 +931,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1172,10 +1172,10 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -1200,10 +1200,10 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1214,10 +1214,10 @@
         <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1228,10 +1228,10 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1270,10 +1270,10 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1287,7 +1287,7 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1301,7 +1301,7 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1340,10 +1340,10 @@
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1354,10 +1354,10 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1368,10 +1368,10 @@
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1382,10 +1382,10 @@
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1396,10 +1396,10 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -1413,7 +1413,7 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1424,10 +1424,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -1452,7 +1452,7 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -1469,7 +1469,7 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1483,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -1497,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1508,10 +1508,10 @@
         <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -1522,7 +1522,7 @@
         <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -1536,7 +1536,7 @@
         <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1550,10 +1550,10 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -1567,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1578,7 +1578,7 @@
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1595,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -1606,10 +1606,10 @@
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1620,10 +1620,10 @@
         <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -1648,7 +1648,7 @@
         <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1662,7 +1662,7 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1718,10 +1718,10 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -1735,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1763,7 +1763,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1777,7 +1777,7 @@
         <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -1791,7 +1791,7 @@
         <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -1833,7 +1833,7 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1858,10 +1858,10 @@
         <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1872,10 +1872,10 @@
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -1903,7 +1903,7 @@
         <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -1942,10 +1942,10 @@
         <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -1956,7 +1956,7 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
         <v>30</v>
@@ -1987,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2026,10 +2026,10 @@
         <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -2043,7 +2043,7 @@
         <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2068,10 +2068,10 @@
         <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2085,7 +2085,7 @@
         <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2110,10 +2110,10 @@
         <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -2127,7 +2127,7 @@
         <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -2138,7 +2138,7 @@
         <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -2155,7 +2155,7 @@
         <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -2166,10 +2166,10 @@
         <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2180,10 +2180,10 @@
         <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -2194,10 +2194,10 @@
         <v>125</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -2208,7 +2208,7 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -2222,10 +2222,10 @@
         <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -2250,10 +2250,10 @@
         <v>129</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2264,10 +2264,10 @@
         <v>130</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
